--- a/Luban/Configs/Datas/LevelDatas/Levels_Battle.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Levels_Battle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1CACBC-9784-4557-9E99-9E8C28B0A519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E776F030-875C-4FEA-BDEB-C22234FD1A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -554,7 +554,7 @@
         <v>300</v>
       </c>
       <c r="E4" s="4">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>300</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="F5">
         <v>0</v>

--- a/Luban/Configs/Datas/LevelDatas/Levels_Battle.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Levels_Battle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E776F030-875C-4FEA-BDEB-C22234FD1A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D11675-DF20-4CAD-8098-E52E560F000A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10260" yWindow="4620" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -547,14 +547,14 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4">
-        <v>1000</v>
+        <v>30000000</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4">
-        <v>300</v>
+        <v>11000000</v>
       </c>
       <c r="E4" s="4">
-        <v>50000</v>
+        <v>50000000</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -562,22 +562,36 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>1001</v>
+        <v>30000001</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="4">
-        <v>300</v>
+        <v>11000000</v>
       </c>
       <c r="E5" s="4">
-        <v>50000</v>
+        <v>50000000</v>
       </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>30000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>11000000</v>
+      </c>
+      <c r="E6" s="4">
+        <v>50000000</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>